--- a/Algoritmo_Rota/Planilhas_Unitario/DFS/PLN_32_20.xlsx
+++ b/Algoritmo_Rota/Planilhas_Unitario/DFS/PLN_32_20.xlsx
@@ -454,7 +454,7 @@
         <v>3875</v>
       </c>
       <c r="D2" t="n">
-        <v>48.47318482398987</v>
+        <v>46.67825126647949</v>
       </c>
     </row>
   </sheetData>
